--- a/江西大学投档线-文件转换_数据清洗/报考人数/报考人数对比.xlsx
+++ b/江西大学投档线-文件转换_数据清洗/报考人数/报考人数对比.xlsx
@@ -97,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="#,##0_);\(#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="#,##0_);\(#,##0\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -202,16 +202,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -222,10 +219,13 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -247,7 +247,7 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="180" formatCode="#,##0.00_);\(#,##0.00\)"/>
+      <numFmt numFmtId="177" formatCode="#,##0.00_);\(#,##0.00\)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -272,7 +272,7 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="180" formatCode="#,##0.00_);\(#,##0.00\)"/>
+      <numFmt numFmtId="177" formatCode="#,##0.00_);\(#,##0.00\)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -647,7 +647,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -680,26 +680,24 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6">
-        <f>B7/B15</f>
-        <v>223092.60079751883</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="13">
+        <v>269844</v>
+      </c>
+      <c r="C3" s="13">
         <v>280000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6">
-        <f>B8/B16</f>
-        <v>269844.20440382219</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="13">
+        <v>223093</v>
+      </c>
+      <c r="C4" s="13">
         <v>250000</v>
       </c>
     </row>
@@ -729,10 +727,10 @@
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>50352</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>49135</v>
       </c>
     </row>
@@ -740,10 +738,10 @@
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>129903</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>143005</v>
       </c>
     </row>
@@ -795,10 +793,10 @@
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>211205</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>192140</v>
       </c>
     </row>
@@ -806,10 +804,10 @@
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>0.39500000000000002</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <f>C13/C6</f>
         <v>0.34770177343467246</v>
       </c>
@@ -818,10 +816,10 @@
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>0.22570000000000001</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <f>C7/C4</f>
         <v>0.19653999999999999</v>
       </c>
@@ -830,10 +828,10 @@
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>0.48139999999999999</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <f>C8/C3</f>
         <v>0.51073214285714286</v>
       </c>

--- a/江西大学投档线-文件转换_数据清洗/报考人数/报考人数对比.xlsx
+++ b/江西大学投档线-文件转换_数据清洗/报考人数/报考人数对比.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>类别</t>
   </si>
@@ -91,15 +91,20 @@
     <t>历史组报考人数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>文理类专科录取人数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_);\(#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +151,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Segoe UI"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +182,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -185,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -208,23 +224,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -346,8 +368,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C17" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C19" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C19"/>
   <tableColumns count="3">
     <tableColumn id="1" name="类别" dataDxfId="2"/>
     <tableColumn id="2" name="2023 年" dataDxfId="1"/>
@@ -644,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -680,24 +702,24 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>269844</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>280000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>223093</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>250000</v>
       </c>
     </row>
@@ -727,10 +749,10 @@
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <v>50352</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>49135</v>
       </c>
     </row>
@@ -738,41 +760,36 @@
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>129903</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>143005</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
-        <v>24716</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>6</v>
+    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8">
+        <v>148587</v>
+      </c>
+      <c r="C9" s="14">
+        <f>表1[[#This Row],[2023 年]]*1.0262</f>
+        <v>152479.97940000001</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>4449</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6">
-        <v>701</v>
+        <v>24716</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>6</v>
@@ -780,70 +797,92 @@
     </row>
     <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6">
-        <v>1084</v>
+        <v>4449</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
+        <v>701</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1084</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B15" s="8">
         <v>211205</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C15" s="9">
         <v>192140</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+    <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B16" s="17">
         <v>0.39500000000000002</v>
       </c>
-      <c r="C14" s="11">
-        <f>C13/C6</f>
+      <c r="C16" s="17">
+        <f>C15/C6</f>
         <v>0.34770177343467246</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B17" s="17">
         <v>0.22570000000000001</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C17" s="17">
         <f>C7/C4</f>
         <v>0.19653999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B18" s="17">
         <v>0.48139999999999999</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C18" s="17">
         <f>C8/C3</f>
         <v>0.51073214285714286</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B19" s="4">
         <v>1.67E-2</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
     </row>
